--- a/Team-Data/2008-09/1-24-2008-09.xlsx
+++ b/Team-Data/2008-09/1-24-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -756,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>20</v>
@@ -765,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -780,13 +847,13 @@
         <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
         <v>18</v>
@@ -798,10 +865,10 @@
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
@@ -810,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
         <v>22</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.795</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.381</v>
+        <v>0.378</v>
       </c>
       <c r="O3" t="n">
         <v>20.6</v>
       </c>
       <c r="P3" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
         <v>16.1</v>
@@ -908,25 +975,25 @@
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,22 +1017,22 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
         <v>5</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -974,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -986,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>4</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1117,7 +1184,7 @@
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1141,10 +1208,10 @@
         <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
         <v>25</v>
@@ -1159,7 +1226,7 @@
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.395</v>
+        <v>0.409</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
@@ -1275,25 +1342,25 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.9</v>
+        <v>-3.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1302,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>26</v>
@@ -1317,52 +1384,52 @@
         <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -1397,91 +1464,91 @@
         <v>41</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.829</v>
+        <v>0.805</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
         <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1490,28 +1557,28 @@
         <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM6" t="n">
         <v>6</v>
       </c>
-      <c r="AM6" t="n">
-        <v>4</v>
-      </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1520,13 +1587,13 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>6</v>
@@ -1535,13 +1602,13 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
         <v>10</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1681,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
         <v>25</v>
@@ -1705,13 +1772,13 @@
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1851,10 +1918,10 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1893,16 +1960,16 @@
         <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2027,10 +2094,10 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>24</v>
@@ -2051,7 +2118,7 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
         <v>25</v>
@@ -2063,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
@@ -2075,19 +2142,19 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2242,7 +2309,7 @@
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
         <v>16</v>
@@ -2254,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2412,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
         <v>9</v>
@@ -2439,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2588,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2597,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2618,19 +2685,19 @@
         <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-6.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
         <v>27</v>
@@ -2761,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2776,13 +2843,13 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
@@ -2791,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2868,7 +2935,7 @@
         <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,31 +2944,31 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.377</v>
+        <v>0.381</v>
       </c>
       <c r="O14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.7</v>
@@ -2910,7 +2977,7 @@
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.4</v>
@@ -2919,25 +2986,25 @@
         <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2946,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,10 +3034,10 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS14" t="n">
         <v>7</v>
@@ -2982,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>3</v>
@@ -2994,7 +3061,7 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.256</v>
+        <v>0.262</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J15" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
@@ -3062,13 +3129,13 @@
         <v>13.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="O15" t="n">
         <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q15" t="n">
         <v>0.754</v>
@@ -3077,19 +3144,19 @@
         <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T15" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="U15" t="n">
         <v>16.5</v>
       </c>
       <c r="V15" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
         <v>4.3</v>
@@ -3104,25 +3171,25 @@
         <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3140,13 +3207,13 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3170,10 +3237,10 @@
         <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -3214,67 +3281,67 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.548</v>
+        <v>0.537</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L16" t="n">
         <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N16" t="n">
         <v>0.357</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
         <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
         <v>4.3</v>
@@ -3283,22 +3350,22 @@
         <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>13</v>
@@ -3322,31 +3389,31 @@
         <v>12</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>24</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
@@ -3364,7 +3431,7 @@
         <v>26</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -3399,22 +3466,22 @@
         <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.478</v>
+        <v>0.457</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.448</v>
@@ -3423,34 +3490,34 @@
         <v>5.7</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.354</v>
+        <v>0.357</v>
       </c>
       <c r="O17" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P17" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="U17" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3459,19 +3526,19 @@
         <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3492,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -3504,25 +3571,25 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3531,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3540,13 +3607,13 @@
         <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3671,10 +3738,10 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3692,7 +3759,7 @@
         <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
@@ -3704,10 +3771,10 @@
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>13</v>
@@ -3725,10 +3792,10 @@
         <v>21</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>0.455</v>
+        <v>0.442</v>
       </c>
       <c r="H19" t="n">
         <v>48.7</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J19" t="n">
         <v>80.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O19" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
       </c>
       <c r="R19" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V19" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W19" t="n">
         <v>6.8</v>
@@ -3823,7 +3890,7 @@
         <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z19" t="n">
         <v>23.1</v>
@@ -3835,10 +3902,10 @@
         <v>98.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.9</v>
+        <v>-3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3850,10 +3917,10 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3865,16 +3932,16 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
@@ -3892,25 +3959,25 @@
         <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>14</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4111,7 @@
         <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4071,31 +4138,31 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,19 +4209,19 @@
         <v>37.5</v>
       </c>
       <c r="J21" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O21" t="n">
         <v>18</v>
@@ -4163,19 +4230,19 @@
         <v>22.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T21" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
         <v>15.2</v>
@@ -4190,31 +4257,31 @@
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>103.5</v>
+        <v>103.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4226,13 +4293,13 @@
         <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4241,7 +4308,7 @@
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
         <v>15</v>
@@ -4250,10 +4317,10 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
@@ -4265,10 +4332,10 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4402,10 +4469,10 @@
         <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,19 +4481,19 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
         <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>13</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS22" t="n">
         <v>11</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
@@ -4459,7 +4526,7 @@
         <v>25</v>
       </c>
       <c r="BC22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>0.767</v>
+        <v>0.786</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J23" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K23" t="n">
         <v>0.46</v>
@@ -4515,10 +4582,10 @@
         <v>10.4</v>
       </c>
       <c r="M23" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="O23" t="n">
         <v>19.2</v>
@@ -4527,13 +4594,13 @@
         <v>26.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T23" t="n">
         <v>42.7</v>
@@ -4545,7 +4612,7 @@
         <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X23" t="n">
         <v>5.6</v>
@@ -4554,43 +4621,43 @@
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
         <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
       </c>
       <c r="AF23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG23" t="n">
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>22</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
       </c>
       <c r="AL23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4602,7 +4669,7 @@
         <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4623,16 +4690,16 @@
         <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
         <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -4670,52 +4737,52 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" t="n">
         <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J24" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O24" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P24" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
         <v>42.8</v>
@@ -4730,25 +4797,25 @@
         <v>7.8</v>
       </c>
       <c r="X24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4760,16 +4827,16 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,22 +4848,22 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4811,19 +4878,19 @@
         <v>9</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4969,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -5037,61 +5104,61 @@
         <v>42</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.619</v>
+        <v>0.595</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M26" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="N26" t="n">
         <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="P26" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R26" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
         <v>5</v>
@@ -5100,28 +5167,28 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5136,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
         <v>10</v>
@@ -5145,13 +5212,13 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5169,25 +5236,25 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.227</v>
+        <v>0.233</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
@@ -5234,7 +5301,7 @@
         <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.445</v>
@@ -5249,34 +5316,34 @@
         <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P27" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.804</v>
+        <v>0.801</v>
       </c>
       <c r="R27" t="n">
         <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T27" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U27" t="n">
         <v>20.1</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
         <v>6.7</v>
       </c>
       <c r="X27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>5.2</v>
@@ -5288,13 +5355,13 @@
         <v>21.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,7 +5373,7 @@
         <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5330,10 +5397,10 @@
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>23</v>
@@ -5345,7 +5412,7 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5366,7 +5433,7 @@
         <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5551,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
@@ -5673,10 +5740,10 @@
         <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5685,16 +5752,16 @@
         <v>18</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="n">
         <v>25</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,7 +5847,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
         <v>0.475</v>
@@ -5792,19 +5859,19 @@
         <v>13.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="P30" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
         <v>29.3</v>
@@ -5813,13 +5880,13 @@
         <v>41.2</v>
       </c>
       <c r="U30" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>4.9</v>
@@ -5828,28 +5895,28 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA30" t="n">
         <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF30" t="n">
         <v>11</v>
       </c>
-      <c r="AF30" t="n">
-        <v>14</v>
-      </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>12</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5894,16 +5961,16 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>25</v>
@@ -5915,7 +5982,7 @@
         <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
@@ -5944,49 +6011,49 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.209</v>
+        <v>0.214</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J31" t="n">
-        <v>81.3</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
         <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.324</v>
+        <v>0.317</v>
       </c>
       <c r="O31" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
         <v>0.756</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
         <v>27.9</v>
@@ -5995,34 +6062,34 @@
         <v>39.6</v>
       </c>
       <c r="U31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
         <v>4.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.9</v>
+        <v>-6.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,16 +6101,16 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6052,7 +6119,7 @@
         <v>24</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO31" t="n">
         <v>29</v>
@@ -6064,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>29</v>
@@ -6073,13 +6140,13 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>26</v>
@@ -6097,7 +6164,7 @@
         <v>26</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-24-2008-09</t>
+          <t>2009-01-24</t>
         </is>
       </c>
     </row>
